--- a/output/1Y_P84_1VAL-D.xlsx
+++ b/output/1Y_P84_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>649.2578999999999</v>
       </c>
-      <c r="G2" s="1">
-        <v>649.2578999999999</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4022</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>16.042</v>
       </c>
+      <c r="E3" s="1">
+        <v>649.2578999999999</v>
+      </c>
       <c r="F3" s="1">
         <v>623.3637</v>
       </c>
-      <c r="G3" s="1">
-        <v>1272.6216</v>
-      </c>
       <c r="H3" s="1">
-        <v>20309.6404</v>
+        <v>10361.4419</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7156</v>
+        <v>10361.4419</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.4022</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20309.6404</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0181</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.8442</v>
       </c>
+      <c r="E4" s="1">
+        <v>1272.6216</v>
+      </c>
       <c r="F4" s="1">
         <v>631.1458</v>
       </c>
-      <c r="G4" s="1">
-        <v>1903.7674</v>
-      </c>
       <c r="H4" s="1">
-        <v>30007.181</v>
+        <v>20059.0612</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7582</v>
+        <v>20059.0612</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.7156</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30007.181</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.01</v>
+        <v>-0.0149</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.9709</v>
       </c>
+      <c r="E5" s="1">
+        <v>1903.7674</v>
+      </c>
       <c r="F5" s="1">
         <v>626.1387999999999</v>
       </c>
-      <c r="G5" s="1">
-        <v>2529.9061</v>
-      </c>
       <c r="H5" s="1">
-        <v>40195.1488</v>
+        <v>30247.0557</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8109</v>
+        <v>30247.0557</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7582</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40195.1488</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.743</v>
       </c>
+      <c r="E6" s="1">
+        <v>2529.9061</v>
+      </c>
       <c r="F6" s="1">
         <v>597.2645</v>
       </c>
-      <c r="G6" s="1">
-        <v>3127.1707</v>
-      </c>
       <c r="H6" s="1">
-        <v>52086.7801</v>
+        <v>42138.6227</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.9889</v>
+        <v>42138.6227</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.8109</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52086.7801</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0377</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E7" s="1">
+        <v>3127.1707</v>
+      </c>
       <c r="F7" s="1">
         <v>567.553</v>
       </c>
-      <c r="G7" s="1">
-        <v>3694.7237</v>
-      </c>
       <c r="H7" s="1">
-        <v>64761.4859</v>
+        <v>54813.3602</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16.2394</v>
+        <v>54813.3602</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.9889</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64761.4859</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0431</v>
+        <v>0.0513</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E8" s="1">
+        <v>3694.7237</v>
+      </c>
       <c r="F8" s="1">
         <v>566.104</v>
       </c>
-      <c r="G8" s="1">
-        <v>4260.8276</v>
-      </c>
       <c r="H8" s="1">
-        <v>74875.5238</v>
+        <v>64927.379</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4287</v>
+        <v>64927.379</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.2394</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74875.5238</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0015</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E9" s="1">
+        <v>4260.8276</v>
+      </c>
       <c r="F9" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G9" s="1">
-        <v>4840.2422</v>
-      </c>
       <c r="H9" s="1">
-        <v>83103.5701</v>
+        <v>73155.4277</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5281</v>
+        <v>73155.4277</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.4287</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83103.5701</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0209</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E10" s="1">
+        <v>4840.2422</v>
+      </c>
       <c r="F10" s="1">
         <v>593.581</v>
       </c>
-      <c r="G10" s="1">
-        <v>5433.8232</v>
-      </c>
       <c r="H10" s="1">
-        <v>91068.70329999999</v>
+        <v>81120.5229</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5629</v>
+        <v>81120.5229</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.5281</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.47</v>
       </c>
-      <c r="L10" s="1">
-        <v>2047.4224</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7952.5776</v>
+        <v>1802.3301</v>
       </c>
       <c r="O10" s="1">
-        <v>2047.4224</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93116.1257</v>
+        <v>-8197.669900000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0001</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E11" s="1">
+        <v>5433.8232</v>
+      </c>
       <c r="F11" s="1">
-        <v>629.3471</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6063.1703</v>
+        <v>624.5339</v>
       </c>
       <c r="H11" s="1">
-        <v>102381.4804</v>
+        <v>91754.4518</v>
       </c>
       <c r="I11" s="1">
-        <v>100682.4741</v>
+        <v>1802.3301</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6056</v>
+        <v>93556.7818</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90600.7767</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6735</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10682.4741</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1364.9483</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103746.4287</v>
+        <v>-10600.7767</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0061</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E12" s="1">
+        <v>6058.3571</v>
+      </c>
       <c r="F12" s="1">
-        <v>604.2568</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6667.427</v>
+        <v>599.6355</v>
       </c>
       <c r="H12" s="1">
-        <v>117260.0392</v>
+        <v>106548.327</v>
       </c>
       <c r="I12" s="1">
-        <v>111364.9483</v>
+        <v>1201.5534</v>
       </c>
       <c r="J12" s="1">
-        <v>16.7028</v>
+        <v>107749.8804</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101201.5534</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.7045</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10682.4741</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>682.4741</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>117942.5134</v>
+        <v>-10600.7767</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0369</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E13" s="1">
+        <v>6657.9927</v>
+      </c>
       <c r="F13" s="1">
-        <v>600.8411</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7268.2681</v>
+        <v>596.246</v>
       </c>
       <c r="H13" s="1">
-        <v>128553.8585</v>
+        <v>117759.9164</v>
       </c>
       <c r="I13" s="1">
-        <v>122047.4224</v>
+        <v>600.7767</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7918</v>
+        <v>118360.6931</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111802.3301</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.7922</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10682.4741</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128553.8585</v>
+        <v>-10600.7767</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E14" s="1">
+        <v>7254.2387</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7268.2681</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6657.9927</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129939.3738</v>
       </c>
       <c r="I14" s="1">
-        <v>122047.4224</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7918</v>
+        <v>129939.3738</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111802.3301</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.412</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130190.6725</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130190.6725</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130190.6725</v>
+        <v>119259.2964</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0604</v>
+        <v>0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>15.4022</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>649.2578999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4022</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>16.042</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>649.2578999999999</v>
       </c>
       <c r="F3" s="1">
         <v>603.9613000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1253.2192</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10361.4419</v>
       </c>
       <c r="I3" s="1">
-        <v>19688.7473</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7105</v>
+        <v>10361.4419</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9688.747300000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>14.9228</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9688.747300000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>311.2527</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20311.2527</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.8442</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1253.2192</v>
       </c>
       <c r="F4" s="1">
         <v>650.0925999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1903.3118</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>19753.2411</v>
       </c>
       <c r="I4" s="1">
-        <v>29988.9438</v>
+        <v>311.2527</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7562</v>
+        <v>20064.4938</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19988.9438</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9501</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10300.1965</v>
       </c>
-      <c r="O4" s="1">
-        <v>11.0562</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30011.0562</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.009900000000000001</v>
+        <v>-0.0146</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.9709</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1903.3118</v>
       </c>
       <c r="F5" s="1">
         <v>614.3116</v>
       </c>
       <c r="G5" s="1">
-        <v>2517.6234</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30239.8173</v>
       </c>
       <c r="I5" s="1">
-        <v>39800.0529</v>
+        <v>11.0562</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8086</v>
+        <v>30250.8735</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29800.0529</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.6569</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9811.1091</v>
       </c>
-      <c r="O5" s="1">
-        <v>199.9471</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40199.9471</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.743</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2517.6234</v>
       </c>
       <c r="F6" s="1">
         <v>484.2618</v>
       </c>
       <c r="G6" s="1">
-        <v>3001.8852</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41934.0383</v>
       </c>
       <c r="I6" s="1">
-        <v>47908.0486</v>
+        <v>199.9471</v>
       </c>
       <c r="J6" s="1">
-        <v>15.9593</v>
+        <v>42133.9853</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37908.0486</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.0571</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8107.9957</v>
       </c>
-      <c r="O6" s="1">
-        <v>2091.9514</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52091.9514</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0377</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.6195</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3001.8852</v>
       </c>
       <c r="F7" s="1">
         <v>421.1898</v>
       </c>
       <c r="G7" s="1">
-        <v>3423.0749</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>52617.3437</v>
       </c>
       <c r="I7" s="1">
-        <v>55329.2016</v>
+        <v>2091.9514</v>
       </c>
       <c r="J7" s="1">
-        <v>16.1636</v>
+        <v>54709.2951</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>45329.2016</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.1002</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7421.1531</v>
       </c>
-      <c r="O7" s="1">
-        <v>4670.7984</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64670.7984</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0415</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.6646</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3423.0749</v>
       </c>
       <c r="F8" s="1">
         <v>560.3087</v>
       </c>
       <c r="G8" s="1">
-        <v>3983.3836</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60153.6961</v>
       </c>
       <c r="I8" s="1">
-        <v>65226.8299</v>
+        <v>4670.7984</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3747</v>
+        <v>64824.4944</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55226.8299</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.1337</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9897.628199999999</v>
       </c>
-      <c r="O8" s="1">
-        <v>4773.1701</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74773.1701</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>17.2588</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3983.3836</v>
       </c>
       <c r="F9" s="1">
         <v>676.0958000000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4659.4794</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>68391.908</v>
       </c>
       <c r="I9" s="1">
-        <v>76895.43240000001</v>
+        <v>4773.1701</v>
       </c>
       <c r="J9" s="1">
-        <v>16.503</v>
+        <v>73165.0782</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66895.43240000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.7936</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11668.6025</v>
       </c>
-      <c r="O9" s="1">
-        <v>3104.5676</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83104.56759999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0197</v>
+        <v>-0.0222</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.8469</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4659.4794</v>
       </c>
       <c r="F10" s="1">
         <v>710.5771</v>
       </c>
       <c r="G10" s="1">
-        <v>5370.0566</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>78091.0113</v>
       </c>
       <c r="I10" s="1">
-        <v>88866.45450000001</v>
+        <v>3104.5676</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5485</v>
+        <v>81195.57889999999</v>
       </c>
       <c r="K10" s="1">
+        <v>78866.45450000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.926</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.47</v>
       </c>
-      <c r="L10" s="1">
-        <v>1970.9598</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-10000.0623</v>
+        <v>1684.9713</v>
       </c>
       <c r="O10" s="1">
-        <v>3104.5053</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93104.5053</v>
+        <v>-10286.0508</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0</v>
+        <v>-0.0237</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>16.9739</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5370.0566</v>
       </c>
       <c r="F11" s="1">
         <v>552.0792</v>
       </c>
       <c r="G11" s="1">
-        <v>5922.1358</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90677.70110000001</v>
       </c>
       <c r="I11" s="1">
-        <v>98237.3915</v>
+        <v>2818.5168</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5882</v>
+        <v>93496.2179</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>88237.3915</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.4314</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9370.937</v>
       </c>
-      <c r="O11" s="1">
-        <v>3733.5683</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103733.5683</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0061</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>17.6787</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5922.1358</v>
       </c>
       <c r="F12" s="1">
         <v>332.4841</v>
       </c>
       <c r="G12" s="1">
-        <v>6254.6199</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>104152.6016</v>
       </c>
       <c r="I12" s="1">
-        <v>104115.2787</v>
+        <v>3447.5797</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6461</v>
+        <v>107600.1813</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>94115.2787</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8921</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-5877.8872</v>
       </c>
-      <c r="O12" s="1">
-        <v>7855.6811</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117855.6811</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0362</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>17.7792</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6254.6199</v>
       </c>
       <c r="F13" s="1">
         <v>530.0242</v>
       </c>
       <c r="G13" s="1">
-        <v>6784.6441</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>110625.462</v>
       </c>
       <c r="I13" s="1">
-        <v>113538.685</v>
+        <v>7569.6925</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7347</v>
+        <v>118195.1545</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>103538.685</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.554</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9423.406199999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>8432.274799999999</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128432.2748</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0045</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>18.0055</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6784.6441</v>
       </c>
       <c r="F14" s="1">
         <v>-6784.6441</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121527.9018</v>
       </c>
       <c r="I14" s="1">
-        <v>113538.685</v>
+        <v>8146.2863</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7347</v>
+        <v>129674.1881</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>103538.685</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.2607</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121527.9018</v>
       </c>
-      <c r="O14" s="1">
-        <v>129960.1767</v>
-      </c>
-      <c r="P14" s="1">
-        <v>129960.1767</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0612</v>
+        <v>0.0115</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>15.4022</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>649.2578999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4022</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>16.042</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>649.2578999999999</v>
       </c>
       <c r="F3" s="1">
         <v>607.0944</v>
       </c>
       <c r="G3" s="1">
-        <v>1256.3523</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10361.4419</v>
       </c>
       <c r="I3" s="1">
-        <v>19739.0077</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7114</v>
+        <v>10361.4419</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9739.0077</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0002</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9739.0077</v>
       </c>
-      <c r="O3" s="1">
-        <v>260.9923</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.9923</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.8442</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1256.3523</v>
       </c>
       <c r="F4" s="1">
         <v>647.6182</v>
       </c>
       <c r="G4" s="1">
-        <v>1903.9705</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30010.3824</v>
+        <v>19802.6242</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>260.9923</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7565</v>
+        <v>20063.6166</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.9191</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10260.9923</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30010.3824</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.009900000000000001</v>
+        <v>-0.0146</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.9709</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1903.9705</v>
       </c>
       <c r="F5" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2530.1092</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40198.3757</v>
+        <v>30250.2826</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8096</v>
+        <v>30250.2826</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7565</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40198.3757</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.743</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2530.1092</v>
       </c>
       <c r="F6" s="1">
         <v>501.9453</v>
       </c>
       <c r="G6" s="1">
-        <v>3032.0545</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42142.0057</v>
       </c>
       <c r="I6" s="1">
-        <v>48404.0695</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.9641</v>
+        <v>42142.0057</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38404.0695</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.1788</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8404.0695</v>
       </c>
-      <c r="O6" s="1">
-        <v>1595.9305</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52098.4368</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0379</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.6195</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3032.0545</v>
       </c>
       <c r="F7" s="1">
         <v>434.0952</v>
       </c>
       <c r="G7" s="1">
-        <v>3466.1497</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>53146.1546</v>
       </c>
       <c r="I7" s="1">
-        <v>56052.61</v>
+        <v>1595.9305</v>
       </c>
       <c r="J7" s="1">
-        <v>16.1714</v>
+        <v>54742.0851</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46052.61</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.1886</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7648.5405</v>
       </c>
-      <c r="O7" s="1">
-        <v>3947.39</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64702.4088</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0419</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.6646</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3466.1497</v>
       </c>
       <c r="F8" s="1">
         <v>577.4851</v>
       </c>
       <c r="G8" s="1">
-        <v>4043.6348</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>60910.6489</v>
       </c>
       <c r="I8" s="1">
-        <v>66253.6526</v>
+        <v>3947.39</v>
       </c>
       <c r="J8" s="1">
-        <v>16.3847</v>
+        <v>64858.0389</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56253.6526</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.2294</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10201.0426</v>
       </c>
-      <c r="O8" s="1">
-        <v>3746.3474</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74805.1413</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>17.2588</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4043.6348</v>
       </c>
       <c r="F9" s="1">
         <v>698.2061</v>
       </c>
       <c r="G9" s="1">
-        <v>4741.8408</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>69426.37850000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78303.85129999999</v>
+        <v>3746.3474</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5134</v>
+        <v>73172.726</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68303.85129999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.8917</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12050.1988</v>
       </c>
-      <c r="O9" s="1">
-        <v>1696.1487</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83110.2365</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.02</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.8469</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4741.8408</v>
       </c>
       <c r="F10" s="1">
         <v>694.2612</v>
       </c>
       <c r="G10" s="1">
-        <v>5436.102</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91106.8953</v>
+        <v>79471.3557</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>1696.1487</v>
       </c>
       <c r="J10" s="1">
-        <v>16.556</v>
+        <v>81167.5043</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.8711</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.47</v>
       </c>
-      <c r="L10" s="1">
-        <v>2005.7987</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-9690.35</v>
+        <v>1710.4575</v>
       </c>
       <c r="O10" s="1">
-        <v>2005.7987</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93112.694</v>
+        <v>-9985.691199999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-0.0241</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>16.9739</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5436.102</v>
       </c>
       <c r="F11" s="1">
         <v>621.0741</v>
       </c>
       <c r="G11" s="1">
-        <v>6057.1761</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>91792.9314</v>
       </c>
       <c r="I11" s="1">
-        <v>100542.0493</v>
+        <v>1710.4575</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5988</v>
+        <v>93503.38890000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90542.0493</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6557</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10542.0493</v>
       </c>
-      <c r="O11" s="1">
-        <v>1463.7494</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103744.0134</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0061</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>17.6787</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6057.1761</v>
       </c>
       <c r="F12" s="1">
         <v>356.1784</v>
       </c>
       <c r="G12" s="1">
-        <v>6413.3545</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>106527.556</v>
       </c>
       <c r="I12" s="1">
-        <v>106838.8203</v>
+        <v>1168.4082</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6588</v>
+        <v>107695.9642</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>96838.82030000001</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.9875</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-6296.771</v>
       </c>
-      <c r="O12" s="1">
-        <v>5166.9784</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117958.6438</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0371</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>17.7792</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6413.3545</v>
       </c>
       <c r="F13" s="1">
         <v>561.0122</v>
       </c>
       <c r="G13" s="1">
-        <v>6974.3667</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113433.0009</v>
       </c>
       <c r="I13" s="1">
-        <v>116813.1685</v>
+        <v>4871.6372</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7489</v>
+        <v>118304.638</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106813.1685</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6548</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-9974.3482</v>
       </c>
-      <c r="O13" s="1">
-        <v>5192.6302</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128548.2539</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0046</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>18.0055</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6974.3667</v>
       </c>
       <c r="F14" s="1">
         <v>-6974.3667</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124926.2511</v>
       </c>
       <c r="I14" s="1">
-        <v>116813.1685</v>
+        <v>4897.289</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7489</v>
+        <v>129823.5401</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>106813.1685</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3151</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124926.2511</v>
       </c>
-      <c r="O14" s="1">
-        <v>130118.8813</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130118.8813</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0608</v>
+        <v>0.0118</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>15.4022</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>649.2578999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4022</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>16.042</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>649.2578999999999</v>
       </c>
       <c r="F3" s="1">
         <v>610.2274</v>
       </c>
       <c r="G3" s="1">
-        <v>1259.4853</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10361.4419</v>
       </c>
       <c r="I3" s="1">
-        <v>19789.268</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.7122</v>
+        <v>10361.4419</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9789.268</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.0776</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9789.268</v>
       </c>
-      <c r="O3" s="1">
-        <v>210.732</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.732</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.8442</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1259.4853</v>
       </c>
       <c r="F4" s="1">
         <v>644.446</v>
       </c>
       <c r="G4" s="1">
-        <v>1903.9313</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30009.7659</v>
+        <v>19852.0073</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>210.732</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7569</v>
+        <v>20062.7393</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8795</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10210.732</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30009.7659</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.009900000000000001</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.9709</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1903.9313</v>
       </c>
       <c r="F5" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2530.0701</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40197.7543</v>
+        <v>30249.6612</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8098</v>
+        <v>30249.6612</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7569</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40197.7543</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.743</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2530.0701</v>
       </c>
       <c r="F6" s="1">
         <v>532.4561</v>
       </c>
       <c r="G6" s="1">
-        <v>3062.5263</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42141.3542</v>
       </c>
       <c r="I6" s="1">
-        <v>48914.9131</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.9721</v>
+        <v>42141.3542</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38914.9131</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.381</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8914.9131</v>
       </c>
-      <c r="O6" s="1">
-        <v>1085.0869</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52095.137</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0378</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.6195</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3062.5263</v>
       </c>
       <c r="F7" s="1">
         <v>447.2752</v>
       </c>
       <c r="G7" s="1">
-        <v>3509.8014</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>53680.2668</v>
       </c>
       <c r="I7" s="1">
-        <v>56795.6779</v>
+        <v>1085.0869</v>
       </c>
       <c r="J7" s="1">
-        <v>16.182</v>
+        <v>54765.3536</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>46795.6779</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.2801</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-7880.7648</v>
       </c>
-      <c r="O7" s="1">
-        <v>3204.3221</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64724.4727</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0423</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.6646</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3509.8014</v>
       </c>
       <c r="F8" s="1">
         <v>595.0954</v>
       </c>
       <c r="G8" s="1">
-        <v>4104.8968</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>61677.7407</v>
       </c>
       <c r="I8" s="1">
-        <v>67307.80009999999</v>
+        <v>3204.3221</v>
       </c>
       <c r="J8" s="1">
-        <v>16.397</v>
+        <v>64882.0628</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57307.8001</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3279</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10512.1222</v>
       </c>
-      <c r="O8" s="1">
-        <v>2692.1999</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74827.552</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>17.2588</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4104.8968</v>
       </c>
       <c r="F9" s="1">
         <v>720.9671</v>
       </c>
       <c r="G9" s="1">
-        <v>4825.8639</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>70478.2053</v>
       </c>
       <c r="I9" s="1">
-        <v>79750.827</v>
+        <v>2692.1999</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5257</v>
+        <v>73170.40519999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69750.827</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9921</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12443.0269</v>
       </c>
-      <c r="O9" s="1">
-        <v>249.173</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83105.8786</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0203</v>
+        <v>-0.0229</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.8469</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4825.8639</v>
       </c>
       <c r="F10" s="1">
         <v>608.3715</v>
       </c>
       <c r="G10" s="1">
-        <v>5434.2354</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>91075.6113</v>
+        <v>80879.54919999999</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>249.173</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5617</v>
+        <v>81128.7222</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.5773</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.47</v>
       </c>
-      <c r="L10" s="1">
-        <v>2041.3404</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-8207.8326</v>
+        <v>1736.3714</v>
       </c>
       <c r="O10" s="1">
-        <v>2041.3404</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93116.9518</v>
+        <v>-8512.801600000001</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0001</v>
+        <v>-0.0245</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>16.9739</v>
       </c>
       <c r="E11" s="1">
+        <v>5434.2354</v>
+      </c>
+      <c r="F11" s="1">
+        <v>691.4363</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>709.4032999999999</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6143.6387</v>
-      </c>
       <c r="H11" s="1">
-        <v>103740.2539</v>
+        <v>91761.41190000001</v>
       </c>
       <c r="I11" s="1">
-        <v>102041.3404</v>
+        <v>1736.3714</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6093</v>
+        <v>93497.78320000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91736.3714</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8812</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12041.3404</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103740.2539</v>
+        <v>-11736.3714</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.006</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>17.6787</v>
       </c>
       <c r="E12" s="1">
+        <v>6125.6717</v>
+      </c>
+      <c r="F12" s="1">
+        <v>451.2514</v>
+      </c>
+      <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
-      <c r="F12" s="1">
-        <v>433.2844</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6576.9231</v>
-      </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>107732.1887</v>
       </c>
       <c r="I12" s="1">
-        <v>109701.246</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6797</v>
+        <v>107732.1887</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>99713.9091</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.278</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-7659.9055</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>2340.0945</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>118008.4411</v>
+        <v>-7977.5377</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0375</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>17.7792</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6576.9231</v>
       </c>
       <c r="F13" s="1">
         <v>593.5993</v>
       </c>
       <c r="G13" s="1">
-        <v>7170.5224</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>116326.039</v>
       </c>
       <c r="I13" s="1">
-        <v>120254.967</v>
+        <v>2022.4623</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7707</v>
+        <v>118348.5012</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110267.6301</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.7658</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10553.721</v>
       </c>
-      <c r="O13" s="1">
-        <v>1786.3734</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128611.4036</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0047</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>18.0055</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7170.5224</v>
       </c>
       <c r="F14" s="1">
         <v>-7170.5224</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128439.8318</v>
       </c>
       <c r="I14" s="1">
-        <v>120254.967</v>
+        <v>1468.7413</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7707</v>
+        <v>129908.573</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110267.6301</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3779</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128439.8318</v>
       </c>
-      <c r="O14" s="1">
-        <v>130226.2052</v>
-      </c>
-      <c r="P14" s="1">
-        <v>130226.2052</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0605</v>
+        <v>0.0122</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>15.4022</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G2" s="1">
-        <v>649.2578999999999</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.124299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>15.4022</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.124299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>16.042</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>649.2578999999999</v>
       </c>
       <c r="F3" s="1">
         <v>613.3605</v>
       </c>
       <c r="G3" s="1">
-        <v>1262.6184</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10361.4419</v>
       </c>
       <c r="I3" s="1">
-        <v>19839.5284</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>15.713</v>
+        <v>10361.4419</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9839.528399999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>15.155</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9839.528399999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>160.4716</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20310.4716</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0361</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.8442</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1262.6184</v>
       </c>
       <c r="F4" s="1">
         <v>641.2739</v>
       </c>
       <c r="G4" s="1">
-        <v>1903.8922</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30009.1494</v>
+        <v>19901.3904</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>160.4716</v>
       </c>
       <c r="J4" s="1">
-        <v>15.7572</v>
+        <v>20061.8621</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>15.8401</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10160.4716</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30009.1494</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.009900000000000001</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.9709</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1903.8922</v>
       </c>
       <c r="F5" s="1">
         <v>626.1387999999999</v>
       </c>
       <c r="G5" s="1">
-        <v>2530.031</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40197.1329</v>
+        <v>30249.0398</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>15.8101</v>
+        <v>30249.0398</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>15.7572</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40197.1329</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0047</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.743</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2530.031</v>
       </c>
       <c r="F6" s="1">
         <v>563.2717</v>
       </c>
       <c r="G6" s="1">
-        <v>3093.3027</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42140.7027</v>
       </c>
       <c r="I6" s="1">
-        <v>49430.8585</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>15.98</v>
+        <v>42140.7027</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39430.8585</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.5851</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9430.8585</v>
       </c>
-      <c r="O6" s="1">
-        <v>569.1415</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52091.8107</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0377</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.6195</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3093.3027</v>
       </c>
       <c r="F7" s="1">
         <v>460.7339</v>
       </c>
       <c r="G7" s="1">
-        <v>3554.0366</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>54219.7199</v>
       </c>
       <c r="I7" s="1">
-        <v>57548.759</v>
+        <v>569.1415</v>
       </c>
       <c r="J7" s="1">
-        <v>16.1925</v>
+        <v>54788.8614</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47548.759</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.3715</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8117.9004</v>
       </c>
-      <c r="O7" s="1">
-        <v>2451.241</v>
-      </c>
-      <c r="P7" s="1">
-        <v>64746.7503</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0428</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.6646</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3554.0366</v>
       </c>
       <c r="F8" s="1">
         <v>613.1484</v>
       </c>
       <c r="G8" s="1">
-        <v>4167.185</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>62455.0855</v>
       </c>
       <c r="I8" s="1">
-        <v>68379.7798</v>
+        <v>2451.241</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4091</v>
+        <v>64906.3265</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58379.7798</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.4263</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10831.0208</v>
       </c>
-      <c r="O8" s="1">
-        <v>1620.2202</v>
-      </c>
-      <c r="P8" s="1">
-        <v>74850.16220000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>17.2588</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4167.185</v>
       </c>
       <c r="F9" s="1">
         <v>673.2925</v>
       </c>
       <c r="G9" s="1">
-        <v>4840.4775</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83107.6099</v>
+        <v>71547.64939999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>1620.2202</v>
       </c>
       <c r="J9" s="1">
-        <v>16.5273</v>
+        <v>73167.86960000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.7979</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-11620.2202</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83107.6099</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0205</v>
+        <v>-0.0232</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.8469</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4840.4775</v>
       </c>
       <c r="F10" s="1">
         <v>593.581</v>
       </c>
       <c r="G10" s="1">
-        <v>5434.0585</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>91072.6467</v>
+        <v>81124.4663</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.5622</v>
+        <v>81124.4663</v>
       </c>
       <c r="K10" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>16.5273</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.47</v>
       </c>
-      <c r="L10" s="1">
-        <v>2047.522</v>
-      </c>
-      <c r="M10" s="1">
-        <v>10000</v>
-      </c>
       <c r="N10" s="1">
-        <v>-7952.478</v>
+        <v>1762.7193</v>
       </c>
       <c r="O10" s="1">
-        <v>2047.522</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93120.1686</v>
+        <v>-8237.280699999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0001</v>
+        <v>-0.0246</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>16.9739</v>
       </c>
       <c r="E11" s="1">
+        <v>5434.0585</v>
+      </c>
+      <c r="F11" s="1">
+        <v>692.9886</v>
+      </c>
+      <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
-      <c r="F11" s="1">
-        <v>709.7675</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6143.826</v>
-      </c>
       <c r="H11" s="1">
-        <v>103743.4163</v>
+        <v>91758.42479999999</v>
       </c>
       <c r="I11" s="1">
-        <v>102047.522</v>
+        <v>1762.7193</v>
       </c>
       <c r="J11" s="1">
-        <v>16.6098</v>
+        <v>93521.1441</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91762.7193</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.8866</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12047.522</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103743.4163</v>
+        <v>-11762.7193</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.006</v>
+        <v>0.0263</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>17.6787</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6127.0471</v>
       </c>
       <c r="F12" s="1">
         <v>565.6525</v>
       </c>
       <c r="G12" s="1">
-        <v>6709.4784</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>117999.5967</v>
+        <v>107756.3772</v>
       </c>
       <c r="I12" s="1">
-        <v>112047.522</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.6999</v>
+        <v>107756.3772</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101762.7193</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.6088</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>117999.5967</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0374</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>17.7792</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6692.6995</v>
       </c>
       <c r="F13" s="1">
         <v>562.455</v>
       </c>
       <c r="G13" s="1">
-        <v>7271.9334</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>128618.6862</v>
+        <v>118373.7768</v>
       </c>
       <c r="I13" s="1">
-        <v>122047.522</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.7834</v>
+        <v>118373.7768</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111762.7193</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6992</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128618.6862</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0048</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>18.0055</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7255.1545</v>
       </c>
       <c r="F14" s="1">
-        <v>-7271.9334</v>
+        <v>-7255.1545</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>129955.7793</v>
       </c>
       <c r="I14" s="1">
-        <v>122047.522</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.7834</v>
+        <v>129955.7793</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111762.7193</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.4046</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>130256.3256</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>130256.3256</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130256.3256</v>
+        <v>129955.7793</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0603</v>
+        <v>0.0123</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4454,7 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>17.957</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.7918</v>
+        <v>15.412</v>
       </c>
       <c r="D3" s="1">
-        <v>16.7347</v>
+        <v>15.2607</v>
       </c>
       <c r="E3" s="1">
-        <v>16.7489</v>
+        <v>15.3151</v>
       </c>
       <c r="F3" s="1">
-        <v>16.7707</v>
+        <v>15.3779</v>
       </c>
       <c r="G3" s="1">
-        <v>16.7834</v>
+        <v>15.4046</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1611</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0618</v>
+        <v>0.1642</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0596</v>
+        <v>0.1613</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0611</v>
+        <v>0.1629</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0621</v>
+        <v>0.1637</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0624</v>
+        <v>0.1643</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.0891</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0944</v>
+        <v>0.0886</v>
       </c>
       <c r="D5" s="3">
-        <v>0.09379999999999999</v>
+        <v>0.0863</v>
       </c>
       <c r="E5" s="3">
-        <v>0.09420000000000001</v>
+        <v>0.0872</v>
       </c>
       <c r="F5" s="3">
-        <v>0.09429999999999999</v>
+        <v>0.08790000000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0944</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5802</v>
       </c>
       <c r="C6" s="4">
-        <v>0.4395</v>
+        <v>1.6235</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4183</v>
+        <v>1.6348</v>
       </c>
       <c r="E6" s="4">
-        <v>0.4332</v>
+        <v>1.6356</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4428</v>
+        <v>1.6318</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4457</v>
+        <v>1.6306</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1613</v>
+        <v>-0.0114</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1649</v>
+        <v>0.1598</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1646</v>
+        <v>0.1595</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1639</v>
+        <v>0.1585</v>
       </c>
       <c r="G7" s="3">
-        <v>0.163</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2047.4224</v>
+        <v>1802.3301</v>
       </c>
       <c r="D8" s="1">
-        <v>1970.9598</v>
+        <v>1684.9713</v>
       </c>
       <c r="E8" s="1">
-        <v>2005.7987</v>
+        <v>1710.4575</v>
       </c>
       <c r="F8" s="1">
-        <v>2041.3404</v>
+        <v>1736.3714</v>
       </c>
       <c r="G8" s="1">
-        <v>2047.522</v>
+        <v>1762.7193</v>
       </c>
     </row>
   </sheetData>
